--- a/data/trans_orig/DC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DC-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>75707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60906</v>
+        <v>60237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93284</v>
+        <v>93834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.159794333614423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1285537907478697</v>
+        <v>0.1271415798193677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1968947031220881</v>
+        <v>0.1980561166367741</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -765,19 +765,19 @@
         <v>64551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51540</v>
+        <v>51989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79901</v>
+        <v>79025</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2104837090793631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1680582142510469</v>
+        <v>0.1695221214780641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2605345440559492</v>
+        <v>0.2576774570148085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -786,19 +786,19 @@
         <v>140258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118911</v>
+        <v>122152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161722</v>
+        <v>164598</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1797127156599183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1523610474717366</v>
+        <v>0.1565132144429079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2072142957411308</v>
+        <v>0.2108992271631169</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>398069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380492</v>
+        <v>379942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412870</v>
+        <v>413539</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8402056663855769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.803105296877912</v>
+        <v>0.8019438833632258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8714462092521305</v>
+        <v>0.8728584201806322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -836,19 +836,19 @@
         <v>242129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226779</v>
+        <v>227655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255140</v>
+        <v>254691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7895162909206369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7394654559440509</v>
+        <v>0.7423225429851914</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8319417857489531</v>
+        <v>0.8304778785219356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>616</v>
@@ -857,19 +857,19 @@
         <v>640199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>618735</v>
+        <v>615859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>661546</v>
+        <v>658305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8202872843400817</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7927857042588692</v>
+        <v>0.7891007728368831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8476389525282635</v>
+        <v>0.8434867855570921</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>41829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31456</v>
+        <v>30767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55639</v>
+        <v>56198</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1139955295158198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08572678403530976</v>
+        <v>0.08384933257649908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1516334295788649</v>
+        <v>0.1531567234427656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -982,19 +982,19 @@
         <v>109641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93735</v>
+        <v>93991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127077</v>
+        <v>128945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2948398236119562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2520670246591188</v>
+        <v>0.2527566139064994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.341729560467708</v>
+        <v>0.3467515454448803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -1003,19 +1003,19 @@
         <v>151469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130156</v>
+        <v>130318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173859</v>
+        <v>174947</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2050211516604705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1761720740002191</v>
+        <v>0.1763913869310763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2353268560523191</v>
+        <v>0.2367993513759183</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>325105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311295</v>
+        <v>310736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335478</v>
+        <v>336167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8860044704841802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8483665704211356</v>
+        <v>0.8468432765572351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9142732159646906</v>
+        <v>0.9161506674235009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -1053,19 +1053,19 @@
         <v>262224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>244788</v>
+        <v>242920</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278130</v>
+        <v>277874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7051601763880438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.658270439532292</v>
+        <v>0.6532484545551196</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7479329753408812</v>
+        <v>0.7472433860935005</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>564</v>
@@ -1074,19 +1074,19 @@
         <v>587330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>564940</v>
+        <v>563852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>608643</v>
+        <v>608481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7949788483395296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7646731439476809</v>
+        <v>0.7632006486240815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8238279259997808</v>
+        <v>0.8236086130689237</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>109725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92150</v>
+        <v>92546</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130001</v>
+        <v>131533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2023002785288349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1698974295950098</v>
+        <v>0.1706261543470645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2396814686772926</v>
+        <v>0.2425076157437529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1199,19 +1199,19 @@
         <v>51041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39007</v>
+        <v>39100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63639</v>
+        <v>63538</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3042090957154029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2324867282103031</v>
+        <v>0.2330412511773078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3792972880053833</v>
+        <v>0.3786936585365585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -1220,19 +1220,19 @@
         <v>160766</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138410</v>
+        <v>138564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181536</v>
+        <v>184927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2263768117908987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1948961888019326</v>
+        <v>0.1951128782391384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.255622828329033</v>
+        <v>0.2603979739360621</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>432664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412388</v>
+        <v>410856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450239</v>
+        <v>449843</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7976997214711651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7603185313227073</v>
+        <v>0.757492384256247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.83010257040499</v>
+        <v>0.8293738456529354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>114</v>
@@ -1270,19 +1270,19 @@
         <v>116741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104143</v>
+        <v>104244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128775</v>
+        <v>128682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6957909042845971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6207027119946161</v>
+        <v>0.6213063414634414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7675132717896966</v>
+        <v>0.7669587488226918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>535</v>
@@ -1291,19 +1291,19 @@
         <v>549405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528635</v>
+        <v>525244</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>571761</v>
+        <v>571607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7736231882091014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7443771716709667</v>
+        <v>0.739602026063938</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8051038111980673</v>
+        <v>0.8048871217608615</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>268498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>242772</v>
+        <v>242771</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>298229</v>
+        <v>298363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2168216778428191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1960475915547339</v>
+        <v>0.1960467681862779</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2408309797724539</v>
+        <v>0.2409387944500919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>213</v>
@@ -1416,19 +1416,19 @@
         <v>214755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191201</v>
+        <v>192732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239692</v>
+        <v>242595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3006578867671368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.267681028702588</v>
+        <v>0.2698254412882478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3355693692182565</v>
+        <v>0.3396339545009083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>486</v>
@@ -1437,19 +1437,19 @@
         <v>483253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449023</v>
+        <v>447854</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>522629</v>
+        <v>524272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2474896943715815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2299591557619776</v>
+        <v>0.2293603494203237</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2676550565138183</v>
+        <v>0.2684966724309573</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>969836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940105</v>
+        <v>939971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>995562</v>
+        <v>995563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7831783221571809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7591690202275461</v>
+        <v>0.7590612055499074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8039524084452659</v>
+        <v>0.803953231813722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -1487,19 +1487,19 @@
         <v>499530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>474593</v>
+        <v>471690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>523084</v>
+        <v>521553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6993421132328632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6644306307817434</v>
+        <v>0.6603660454990916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.732318971297412</v>
+        <v>0.7301745587117522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1432</v>
@@ -1508,19 +1508,19 @@
         <v>1469367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1429991</v>
+        <v>1428348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1503597</v>
+        <v>1504766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7525103056284185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7323449434861817</v>
+        <v>0.7315033275690427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7700408442380223</v>
+        <v>0.7706396505796763</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70420</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56872</v>
+        <v>57320</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85653</v>
+        <v>87249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2008816911046173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1622332799789437</v>
+        <v>0.1635119810168476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2443367215054884</v>
+        <v>0.2488875766814163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -1633,19 +1633,19 @@
         <v>158224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>136118</v>
+        <v>138341</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178845</v>
+        <v>180589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2781958302549118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2393272191141971</v>
+        <v>0.2432368205883099</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3144510407973458</v>
+        <v>0.3175181071738055</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -1654,19 +1654,19 @@
         <v>228644</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>201973</v>
+        <v>202638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254637</v>
+        <v>255004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2487139752915989</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2197013930606233</v>
+        <v>0.2204251832590199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.276987985553648</v>
+        <v>0.2773872743904004</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>280135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>264902</v>
+        <v>263306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293683</v>
+        <v>293235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7991183088953827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7556632784945115</v>
+        <v>0.7511124233185836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8377667200210562</v>
+        <v>0.8364880189831522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>389</v>
@@ -1704,19 +1704,19 @@
         <v>410528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>389907</v>
+        <v>388163</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>432634</v>
+        <v>430411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7218041697450882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6855489592026542</v>
+        <v>0.6824818928261945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7606727808858028</v>
+        <v>0.7567631794116901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>656</v>
@@ -1725,19 +1725,19 @@
         <v>690663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>664670</v>
+        <v>664303</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>717334</v>
+        <v>716669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7512860247084011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.723012014446352</v>
+        <v>0.7226127256095995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7802986069393767</v>
+        <v>0.7795748167409801</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>6644</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2814</v>
+        <v>2845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12736</v>
+        <v>13645</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02228183053264526</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009438212086162493</v>
+        <v>0.009540837736067547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04270999725103072</v>
+        <v>0.04575662273929674</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>342</v>
@@ -1850,19 +1850,19 @@
         <v>343384</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>314868</v>
+        <v>312575</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>375671</v>
+        <v>378142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2749800527346349</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2521443584939445</v>
+        <v>0.2503079230545626</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3008354435612325</v>
+        <v>0.3028143634950122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>349</v>
@@ -1871,19 +1871,19 @@
         <v>350028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>320999</v>
+        <v>322542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>383770</v>
+        <v>388834</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.226268560389146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2075030114147303</v>
+        <v>0.2085007012466862</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2480798141777914</v>
+        <v>0.2513533054528917</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>291557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285465</v>
+        <v>284556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295387</v>
+        <v>295356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9777181694673548</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9572900027489691</v>
+        <v>0.9542433772607032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9905617879138375</v>
+        <v>0.9904591622639324</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>896</v>
@@ -1921,19 +1921,19 @@
         <v>905376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>873089</v>
+        <v>870618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>933892</v>
+        <v>936185</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7250199472653651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6991645564387674</v>
+        <v>0.6971856365049878</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7478556415060555</v>
+        <v>0.7496920769454374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1195</v>
@@ -1942,19 +1942,19 @@
         <v>1196932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1163190</v>
+        <v>1158126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1225961</v>
+        <v>1224418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.773731439610854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7519201858222087</v>
+        <v>0.7486466945471083</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7924969885852696</v>
+        <v>0.7914992987533137</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>572823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>533537</v>
+        <v>526870</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>616434</v>
+        <v>616319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1751651941323684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1631516542458955</v>
+        <v>0.1611128573799401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1885010192615669</v>
+        <v>0.1884658277762849</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>925</v>
@@ -2067,19 +2067,19 @@
         <v>941596</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>890586</v>
+        <v>893093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>995984</v>
+        <v>993863</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2787335489870705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.263633404432813</v>
+        <v>0.2643753870806935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2948335166021334</v>
+        <v>0.2942056680014055</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1505</v>
@@ -2088,19 +2088,19 @@
         <v>1514420</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1448678</v>
+        <v>1447094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1580294</v>
+        <v>1577465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2277900771164436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.21790149076449</v>
+        <v>0.2176632587353058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2376984644670169</v>
+        <v>0.2372730017961571</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2697367</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2653756</v>
+        <v>2653871</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2736653</v>
+        <v>2743320</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8248348058676316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8114989807384331</v>
+        <v>0.811534172223715</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8368483457541045</v>
+        <v>0.8388871426200598</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2371</v>
@@ -2138,19 +2138,19 @@
         <v>2436528</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2382140</v>
+        <v>2384261</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2487538</v>
+        <v>2485031</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7212664510129295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7051664833978668</v>
+        <v>0.7057943319985945</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.736366595567187</v>
+        <v>0.7356246129193065</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4998</v>
@@ -2159,19 +2159,19 @@
         <v>5133894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5068020</v>
+        <v>5070849</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5199636</v>
+        <v>5201220</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7722099228835564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7623015355329831</v>
+        <v>0.7627269982038428</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7820985092355098</v>
+        <v>0.7823367412646941</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>34079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24686</v>
+        <v>23121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46241</v>
+        <v>46375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07794544714440224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05646262940223786</v>
+        <v>0.05288292264809313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057645409709874</v>
+        <v>0.1060697845824694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2526,19 +2526,19 @@
         <v>60593</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46107</v>
+        <v>45828</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75497</v>
+        <v>75023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1926935769659771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1466265725235721</v>
+        <v>0.1457395551879332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2400875958954476</v>
+        <v>0.2385833304216509</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2547,19 +2547,19 @@
         <v>94672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78403</v>
+        <v>76752</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114827</v>
+        <v>115063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1259495925702808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1043055718043733</v>
+        <v>0.1021092376686459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1527633971550746</v>
+        <v>0.1530777324229261</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>403132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390970</v>
+        <v>390836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412525</v>
+        <v>414090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9220545528555978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8942354590290127</v>
+        <v>0.8939302154175305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9435373705977621</v>
+        <v>0.9471170773519069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -2597,19 +2597,19 @@
         <v>253861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238957</v>
+        <v>239431</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268347</v>
+        <v>268626</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8073064230340229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7599124041045524</v>
+        <v>0.761416669578349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8533734274764279</v>
+        <v>0.8542604448120663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>598</v>
@@ -2618,19 +2618,19 @@
         <v>656993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>636838</v>
+        <v>636602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673262</v>
+        <v>674913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8740504074297192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8472366028449254</v>
+        <v>0.8469222675770737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8956944281956271</v>
+        <v>0.8978907623313539</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>39199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28404</v>
+        <v>27839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53277</v>
+        <v>52992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09359797403605227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06782263970523737</v>
+        <v>0.06647487010924501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1272147101987812</v>
+        <v>0.1265350249722789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -2743,19 +2743,19 @@
         <v>64598</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50209</v>
+        <v>50791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79545</v>
+        <v>80782</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.191111909957682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1485435684470055</v>
+        <v>0.1502634706952803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2353337457347605</v>
+        <v>0.238993016981166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -2764,19 +2764,19 @@
         <v>103796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83790</v>
+        <v>85293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123133</v>
+        <v>124646</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1371503547610447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1107147031153115</v>
+        <v>0.1127004357933998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1627006318198768</v>
+        <v>0.1646990021179047</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>379598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365520</v>
+        <v>365805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390393</v>
+        <v>390958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9064020259639477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8727852898012187</v>
+        <v>0.8734649750277211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9321773602947626</v>
+        <v>0.933525129890755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>245</v>
@@ -2814,19 +2814,19 @@
         <v>273413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>258466</v>
+        <v>257229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>287802</v>
+        <v>287220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8088880900423181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7646662542652395</v>
+        <v>0.761006983018834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8514564315529944</v>
+        <v>0.8497365293047197</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>584</v>
@@ -2835,19 +2835,19 @@
         <v>653012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>633675</v>
+        <v>632162</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>673018</v>
+        <v>671515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8628496452389554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8372993681801233</v>
+        <v>0.8353009978820954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8892852968846887</v>
+        <v>0.8872995642066004</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>73187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58538</v>
+        <v>57136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92378</v>
+        <v>93343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1162773831033755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09300398091212646</v>
+        <v>0.09077636351433303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1467686168586844</v>
+        <v>0.1483010872517563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -2960,19 +2960,19 @@
         <v>59110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47167</v>
+        <v>46263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74663</v>
+        <v>73955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2272315825969265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1813200654801724</v>
+        <v>0.1778451126279802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2870224917571728</v>
+        <v>0.2843023200863533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -2981,19 +2981,19 @@
         <v>132296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109890</v>
+        <v>110478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155576</v>
+        <v>156027</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1487237202914856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1235348852177456</v>
+        <v>0.1241961259693408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1748938621854833</v>
+        <v>0.1754006053542461</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>556228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537037</v>
+        <v>536072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>570877</v>
+        <v>572279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8837226168966245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8532313831413157</v>
+        <v>0.8516989127482437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.906996019087874</v>
+        <v>0.9092236364856667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -3031,19 +3031,19 @@
         <v>201019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>185466</v>
+        <v>186174</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212962</v>
+        <v>213866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7727684174030736</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7129775082428272</v>
+        <v>0.7156976799136466</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8186799345198276</v>
+        <v>0.8221548873720197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>711</v>
@@ -3052,19 +3052,19 @@
         <v>757248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>733968</v>
+        <v>733517</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>779654</v>
+        <v>779066</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8512762797085144</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8251061378145169</v>
+        <v>0.8245993946457538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8764651147822544</v>
+        <v>0.8758038740306593</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>150629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129545</v>
+        <v>128351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176743</v>
+        <v>173865</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1299640274503578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1117719440872462</v>
+        <v>0.1107423934620875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1524946058833211</v>
+        <v>0.1500115628878022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -3177,19 +3177,19 @@
         <v>167202</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143245</v>
+        <v>144797</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191120</v>
+        <v>192940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2180928581575471</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1868439166125096</v>
+        <v>0.1888686731280941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2492900006884381</v>
+        <v>0.251664557863487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>296</v>
@@ -3198,19 +3198,19 @@
         <v>317832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>285053</v>
+        <v>287915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353097</v>
+        <v>354360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1650503818175902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1480282424108247</v>
+        <v>0.1495144847048649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1833636889096143</v>
+        <v>0.1840195856110506</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1008380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>982266</v>
+        <v>985144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1029464</v>
+        <v>1030658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8700359725496422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8475053941166788</v>
+        <v>0.8499884371121977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8882280559127537</v>
+        <v>0.8892576065379124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>557</v>
@@ -3248,19 +3248,19 @@
         <v>599455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>575537</v>
+        <v>573717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>623412</v>
+        <v>621860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7819071418424529</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7507099993115616</v>
+        <v>0.7483354421365132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8131560833874901</v>
+        <v>0.8111313268719059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1498</v>
@@ -3269,19 +3269,19 @@
         <v>1607835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1572570</v>
+        <v>1571307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1640614</v>
+        <v>1637752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8349496181824098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8166363110903857</v>
+        <v>0.8159804143889494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8519717575891753</v>
+        <v>0.8504855152951352</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>48793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35656</v>
+        <v>35488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61798</v>
+        <v>62845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09556176117949698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06983217009702571</v>
+        <v>0.06950220199196332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1210310501737236</v>
+        <v>0.123082135692915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -3394,19 +3394,19 @@
         <v>211637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186551</v>
+        <v>186519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>236245</v>
+        <v>237887</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2779130398348433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2449717337710139</v>
+        <v>0.2449288755492216</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3102271322301682</v>
+        <v>0.3123831930951575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -3415,19 +3415,19 @@
         <v>260430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229620</v>
+        <v>233898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>288701</v>
+        <v>294756</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2047218059878792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1805022172010094</v>
+        <v>0.1838653008536637</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2269450120289032</v>
+        <v>0.2317052758930577</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>461803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448798</v>
+        <v>447751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474940</v>
+        <v>475108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.904438238820503</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8789689498262764</v>
+        <v>0.8769178643070851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9301678299029742</v>
+        <v>0.9304977980080368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>506</v>
@@ -3465,19 +3465,19 @@
         <v>549885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525277</v>
+        <v>523635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>574971</v>
+        <v>575003</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7220869601651567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6897728677698317</v>
+        <v>0.6876168069048424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.755028266228986</v>
+        <v>0.7550711244507783</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>947</v>
@@ -3486,19 +3486,19 @@
         <v>1011688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>983417</v>
+        <v>977362</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1042498</v>
+        <v>1038220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7952781940121207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7730549879710967</v>
+        <v>0.7682947241069423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8194977827989905</v>
+        <v>0.8161346991463364</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>8391</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3355</v>
+        <v>3338</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18007</v>
+        <v>17170</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03144171063620557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01257166239551176</v>
+        <v>0.01250621752830235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06747037699075245</v>
+        <v>0.06433669375624643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>261</v>
@@ -3611,19 +3611,19 @@
         <v>282102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>252286</v>
+        <v>253069</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>311568</v>
+        <v>313339</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2542945683951384</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2274179131327604</v>
+        <v>0.2281232738781828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2808557504806487</v>
+        <v>0.282452430901906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>268</v>
@@ -3632,19 +3632,19 @@
         <v>290493</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>257784</v>
+        <v>259549</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>324461</v>
+        <v>321534</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2110784908288888</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1873115881237732</v>
+        <v>0.1885935344801623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2357601534342101</v>
+        <v>0.2336335532356337</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>258491</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248875</v>
+        <v>249712</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263527</v>
+        <v>263544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9685582893637944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9325296230092478</v>
+        <v>0.9356633062437539</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9874283376044883</v>
+        <v>0.9874937824716976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>783</v>
@@ -3682,19 +3682,19 @@
         <v>827249</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>797783</v>
+        <v>796012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>857065</v>
+        <v>856282</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7457054316048616</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7191442495193512</v>
+        <v>0.717547569098094</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7725820868672394</v>
+        <v>0.7718767261218172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1041</v>
@@ -3703,19 +3703,19 @@
         <v>1085740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1051772</v>
+        <v>1054699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1118449</v>
+        <v>1116684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7889215091711111</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7642398465657898</v>
+        <v>0.7663664467643664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8126884118762266</v>
+        <v>0.8114064655198377</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>354278</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>321106</v>
+        <v>320169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>396197</v>
+        <v>394989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.103532255332398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09383835197524951</v>
+        <v>0.09356433859390699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1157823467092588</v>
+        <v>0.1154294291182331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>784</v>
@@ -3828,19 +3828,19 @@
         <v>845242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>796438</v>
+        <v>793568</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>896629</v>
+        <v>896301</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2380880024915098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2243407854256171</v>
+        <v>0.2235324032211455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2525626527970383</v>
+        <v>0.2524702560292396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1116</v>
@@ -3849,19 +3849,19 @@
         <v>1199520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1131269</v>
+        <v>1139769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1262423</v>
+        <v>1267361</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.172047364900287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1622580478742289</v>
+        <v>0.1634771804604007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1810694550045734</v>
+        <v>0.1817778164409076</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3067632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3025713</v>
+        <v>3026921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3100804</v>
+        <v>3101741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8964677446676019</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8842176532907412</v>
+        <v>0.8845705708817669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9061616480247506</v>
+        <v>0.9064356614060931</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2506</v>
@@ -3899,19 +3899,19 @@
         <v>2704883</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2653496</v>
+        <v>2653824</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2753687</v>
+        <v>2756557</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7619119975084901</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7474373472029617</v>
+        <v>0.7475297439707604</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7756592145743828</v>
+        <v>0.7764675967788545</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5379</v>
@@ -3920,19 +3920,19 @@
         <v>5772515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5709612</v>
+        <v>5704674</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5840766</v>
+        <v>5832266</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8279526350997131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8189305449954266</v>
+        <v>0.8182221835590928</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8377419521257714</v>
+        <v>0.8365228195395995</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>46331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33418</v>
+        <v>34305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59982</v>
+        <v>60973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1079739314000098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07788157083385333</v>
+        <v>0.07994726875579274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1397881388091693</v>
+        <v>0.1420971490144989</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -4287,19 +4287,19 @@
         <v>42138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31409</v>
+        <v>31861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55713</v>
+        <v>56743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1214162132481466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09050135979882551</v>
+        <v>0.0918031068068314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1605308611390452</v>
+        <v>0.1634994779322163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -4308,19 +4308,19 @@
         <v>88469</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70957</v>
+        <v>71362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105964</v>
+        <v>107212</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1139846618021554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09142264365317855</v>
+        <v>0.09194404346231373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.136525131601989</v>
+        <v>0.1381336573591687</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>382761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>369110</v>
+        <v>368119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395674</v>
+        <v>394787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8920260685999902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8602118611908312</v>
+        <v>0.8579028509855011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9221184291661471</v>
+        <v>0.9200527312442071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>292</v>
@@ -4358,19 +4358,19 @@
         <v>304917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291342</v>
+        <v>290312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315646</v>
+        <v>315194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8785837867518534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8394691388609545</v>
+        <v>0.8365005220677836</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9094986402011742</v>
+        <v>0.9081968931931685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>646</v>
@@ -4379,19 +4379,19 @@
         <v>687678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>670183</v>
+        <v>668935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>705190</v>
+        <v>704785</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8860153381978446</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.863474868398011</v>
+        <v>0.8618663426408313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9085773563468214</v>
+        <v>0.9080559565376862</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>22433</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13835</v>
+        <v>14648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33800</v>
+        <v>35195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05946885999257057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03667652640899446</v>
+        <v>0.03882994913222111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08960205003269288</v>
+        <v>0.09329812176538307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -4504,19 +4504,19 @@
         <v>63828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49436</v>
+        <v>48922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78904</v>
+        <v>81435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1714556170235021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.132794652368737</v>
+        <v>0.1314134546437613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2119509629820828</v>
+        <v>0.218751297241077</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -4525,19 +4525,19 @@
         <v>86262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68757</v>
+        <v>69387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105622</v>
+        <v>106478</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1150921574021975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09173763991780083</v>
+        <v>0.09257819023572585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1409232721403925</v>
+        <v>0.1420656395165296</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>354794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>343427</v>
+        <v>342032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363392</v>
+        <v>362579</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9405311400074294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9103979499673072</v>
+        <v>0.9067018782346171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9633234735910057</v>
+        <v>0.9611700508677788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -4575,19 +4575,19 @@
         <v>308445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>293369</v>
+        <v>290838</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322837</v>
+        <v>323351</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8285443829764979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7880490370179173</v>
+        <v>0.7812487027589231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.867205347631263</v>
+        <v>0.868586545356239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -4596,19 +4596,19 @@
         <v>663238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>643878</v>
+        <v>643022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>680743</v>
+        <v>680113</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8849078425978025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8590767278596075</v>
+        <v>0.8579343604834703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9082623600821992</v>
+        <v>0.9074218097642741</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>45937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33790</v>
+        <v>33519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60060</v>
+        <v>59051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08801583989110494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06474281717524578</v>
+        <v>0.0642238190194704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.115076299125075</v>
+        <v>0.1131436227945188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -4721,19 +4721,19 @@
         <v>40965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30832</v>
+        <v>29967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53699</v>
+        <v>52277</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2465925442167053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1855987327709999</v>
+        <v>0.1803890104501492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3232454956266483</v>
+        <v>0.3146914344226557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -4742,19 +4742,19 @@
         <v>86901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70674</v>
+        <v>70884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106972</v>
+        <v>106394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1263033536917559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1027185819430139</v>
+        <v>0.1030239966452749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1554740741157553</v>
+        <v>0.1546350528275827</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>475977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461854</v>
+        <v>462863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488124</v>
+        <v>488395</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.911984160108895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8849237008749251</v>
+        <v>0.8868563772054814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9352571828247542</v>
+        <v>0.9357761809805296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -4792,19 +4792,19 @@
         <v>125158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112424</v>
+        <v>113846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135291</v>
+        <v>136156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7534074557832946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6767545043733515</v>
+        <v>0.6853085655773441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8144012672290001</v>
+        <v>0.8196109895498507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>574</v>
@@ -4813,19 +4813,19 @@
         <v>601135</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>581064</v>
+        <v>581642</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>617362</v>
+        <v>617152</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8736966463082441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8445259258842448</v>
+        <v>0.8453649471724174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.897281418056986</v>
+        <v>0.8969760033547252</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>120658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100587</v>
+        <v>100747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141185</v>
+        <v>143058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1049526403748467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08749453131954223</v>
+        <v>0.08763378281164015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1228080041204494</v>
+        <v>0.1244376860290085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -4938,19 +4938,19 @@
         <v>141791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120687</v>
+        <v>119542</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165223</v>
+        <v>164333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1716852789030275</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.146132594099387</v>
+        <v>0.1447461181851129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2000583382050508</v>
+        <v>0.1989797046568097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>248</v>
@@ -4959,19 +4959,19 @@
         <v>262448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233498</v>
+        <v>229961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293708</v>
+        <v>292995</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1328506298249473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1181959009767079</v>
+        <v>0.1164057001662649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1486740471152914</v>
+        <v>0.1483135010190767</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1028980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1008453</v>
+        <v>1006580</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1049051</v>
+        <v>1048891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8950473596251534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8771919958795509</v>
+        <v>0.8755623139709916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9125054686804579</v>
+        <v>0.91236621718836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>666</v>
@@ -5009,19 +5009,19 @@
         <v>684085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>660653</v>
+        <v>661543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705189</v>
+        <v>706334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8283147210969725</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7999416617949493</v>
+        <v>0.8010202953431904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8538674059006132</v>
+        <v>0.8552538818148882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1653</v>
@@ -5030,19 +5030,19 @@
         <v>1713066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1681806</v>
+        <v>1682519</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1742016</v>
+        <v>1745553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8671493701750527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8513259528847085</v>
+        <v>0.8516864989809229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8818040990232919</v>
+        <v>0.8835942998337351</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>83173</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67126</v>
+        <v>67758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100394</v>
+        <v>100978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1339979846684932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1081446279421337</v>
+        <v>0.1091635932808577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1617419567599748</v>
+        <v>0.1626818174115325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -5155,19 +5155,19 @@
         <v>169837</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>148304</v>
+        <v>146477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193932</v>
+        <v>194262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2300558993283979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2008875637963855</v>
+        <v>0.1984128353525494</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2626932487680991</v>
+        <v>0.2631411864719805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -5176,19 +5176,19 @@
         <v>253011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>223773</v>
+        <v>225181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284048</v>
+        <v>282904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1861810606154196</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1646658850605794</v>
+        <v>0.1657020391161666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.209020148824182</v>
+        <v>0.2081785653247707</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>537533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>520312</v>
+        <v>519728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>553580</v>
+        <v>552948</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8660020153315069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8382580432400253</v>
+        <v>0.8373181825884676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8918553720578662</v>
+        <v>0.8908364067191422</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>543</v>
@@ -5226,19 +5226,19 @@
         <v>568407</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>544312</v>
+        <v>543982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>589940</v>
+        <v>591767</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7699441006716021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7373067512319009</v>
+        <v>0.7368588135280196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7991124362036145</v>
+        <v>0.8015871646474507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1058</v>
@@ -5247,19 +5247,19 @@
         <v>1105939</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1074902</v>
+        <v>1076046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1135177</v>
+        <v>1133769</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8138189393845804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7909798511758181</v>
+        <v>0.7918214346752296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8353341149394207</v>
+        <v>0.8342979608838335</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>3160</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9287</v>
+        <v>8746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01100367121014324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003355122705636456</v>
+        <v>0.003381840414203922</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03234101633603251</v>
+        <v>0.03045698805262084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>167</v>
@@ -5372,19 +5372,19 @@
         <v>189423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>165506</v>
+        <v>165706</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217863</v>
+        <v>217301</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1750635111546928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1529592725987998</v>
+        <v>0.1531441194899986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2013472437580719</v>
+        <v>0.2008278392587601</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -5393,19 +5393,19 @@
         <v>192583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167391</v>
+        <v>167491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>221312</v>
+        <v>221183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1406565442017429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1222571275139042</v>
+        <v>0.1223306017851979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1616393490631824</v>
+        <v>0.1615456484269263</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>283985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277858</v>
+        <v>278399</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286182</v>
+        <v>286174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9889963287898568</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9676589836639675</v>
+        <v>0.9695430119473792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966448772943636</v>
+        <v>0.9966181595857961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>825</v>
@@ -5443,19 +5443,19 @@
         <v>892602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>864162</v>
+        <v>864724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>916519</v>
+        <v>916319</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8249364888453072</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7986527562419281</v>
+        <v>0.7991721607412403</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8470407274012004</v>
+        <v>0.8468558805100015</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1094</v>
@@ -5464,19 +5464,19 @@
         <v>1176587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1147858</v>
+        <v>1147987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1201779</v>
+        <v>1201679</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8593434557982571</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8383606509368176</v>
+        <v>0.8384543515730737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8777428724860957</v>
+        <v>0.8776693982148021</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>321691</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>286987</v>
+        <v>286775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>355337</v>
+        <v>358304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09501407613034256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08476391949287365</v>
+        <v>0.08470131007133135</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1049515337033551</v>
+        <v>0.1058279882502443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>591</v>
@@ -5589,19 +5589,19 @@
         <v>647982</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>602049</v>
+        <v>600143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>697309</v>
+        <v>695022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1834814402064027</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1704750062822766</v>
+        <v>0.1699354647668418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1974487176591607</v>
+        <v>0.1968011278753495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>898</v>
@@ -5610,19 +5610,19 @@
         <v>969674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>912813</v>
+        <v>903232</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1040702</v>
+        <v>1025915</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1401805663431568</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1319605255551126</v>
+        <v>0.1305753910180268</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1504488398935265</v>
+        <v>0.1483110394327019</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3064031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3030385</v>
+        <v>3027418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3098735</v>
+        <v>3098947</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9049859238696575</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8950484662966448</v>
+        <v>0.894172011749755</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9152360805071263</v>
+        <v>0.9152986899286686</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2735</v>
@@ -5660,19 +5660,19 @@
         <v>2883614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2834287</v>
+        <v>2836574</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2929547</v>
+        <v>2931453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8165185597935972</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8025512823408393</v>
+        <v>0.8031988721246505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8295249937177234</v>
+        <v>0.8300645352331583</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5652</v>
@@ -5681,19 +5681,19 @@
         <v>5947644</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5876616</v>
+        <v>5891403</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6004505</v>
+        <v>6014086</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8598194336568431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8495511601064736</v>
+        <v>0.8516889605672979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8680394744448874</v>
+        <v>0.8694246089819728</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>99687</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83970</v>
+        <v>82455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118789</v>
+        <v>118419</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1810455412430403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1525015610122534</v>
+        <v>0.1497508074850734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2157383953797586</v>
+        <v>0.2150651457625998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -6048,19 +6048,19 @@
         <v>169222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149037</v>
+        <v>149082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187577</v>
+        <v>187603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3464755301640647</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3051465292484876</v>
+        <v>0.3052383513542627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3840562810452371</v>
+        <v>0.3841092565955845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>344</v>
@@ -6069,19 +6069,19 @@
         <v>268909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>244411</v>
+        <v>242579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>297218</v>
+        <v>297054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2588083328575669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2352300440134216</v>
+        <v>0.2334670497984318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2860539889556578</v>
+        <v>0.2858958913872376</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>450931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431829</v>
+        <v>432199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466648</v>
+        <v>468163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8189544587569598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7842616046202416</v>
+        <v>0.7849348542374006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8474984389877467</v>
+        <v>0.8502491925149269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>455</v>
@@ -6119,19 +6119,19 @@
         <v>319189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300834</v>
+        <v>300808</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339374</v>
+        <v>339329</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6535244698359354</v>
+        <v>0.6535244698359353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6159437189547629</v>
+        <v>0.6158907434044155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6948534707515127</v>
+        <v>0.6947616486457376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>896</v>
@@ -6140,19 +6140,19 @@
         <v>770120</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741811</v>
+        <v>741975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>794618</v>
+        <v>796450</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7411916671424332</v>
+        <v>0.741191667142433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7139460110443423</v>
+        <v>0.7141041086127635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7647699559865784</v>
+        <v>0.7665329502015684</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>92354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75081</v>
+        <v>75619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110279</v>
+        <v>111080</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1911262131652749</v>
+        <v>0.1911262131652748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1553783479132795</v>
+        <v>0.1564919919239937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2282215078530094</v>
+        <v>0.2298785373350272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>221</v>
@@ -6265,19 +6265,19 @@
         <v>154226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136901</v>
+        <v>137350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172059</v>
+        <v>173800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3644777868827156</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3235333400446784</v>
+        <v>0.324594644840045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4066211186110643</v>
+        <v>0.4107349566446026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -6286,19 +6286,19 @@
         <v>246581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222660</v>
+        <v>222144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>270737</v>
+        <v>273598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2720575034267901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2456653337996404</v>
+        <v>0.245096179680773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2987095650065907</v>
+        <v>0.3018664247872416</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>390858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372933</v>
+        <v>372132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408131</v>
+        <v>407593</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8088737868347252</v>
+        <v>0.8088737868347251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7717784921469902</v>
+        <v>0.7701214626649728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8446216520867204</v>
+        <v>0.8435080080760061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -6336,19 +6336,19 @@
         <v>268917</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251084</v>
+        <v>249343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>286242</v>
+        <v>285793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6355222131172842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5933788813889357</v>
+        <v>0.5892650433553974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6764666599553217</v>
+        <v>0.6754053551599549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -6357,19 +6357,19 @@
         <v>659774</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>635618</v>
+        <v>632757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>683695</v>
+        <v>684211</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7279424965732099</v>
+        <v>0.72794249657321</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7012904349934094</v>
+        <v>0.6981335752127584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7543346662003596</v>
+        <v>0.754903820319227</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>116541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98217</v>
+        <v>99213</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135912</v>
+        <v>135618</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2471120762624973</v>
+        <v>0.2471120762624972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.208257985708745</v>
+        <v>0.2103694070939899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2881858655183988</v>
+        <v>0.2875618242351042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -6482,19 +6482,19 @@
         <v>84731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72498</v>
+        <v>73750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95949</v>
+        <v>95896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4519085525057739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3866626109295286</v>
+        <v>0.3933386336651695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5117348820896999</v>
+        <v>0.511454397004895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -6503,19 +6503,19 @@
         <v>201273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181092</v>
+        <v>177899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222923</v>
+        <v>223119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3053707000465846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2747523370580265</v>
+        <v>0.2699082250524542</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3382182010216159</v>
+        <v>0.338515664882502</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>355071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335700</v>
+        <v>335994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373395</v>
+        <v>372399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7528879237375029</v>
+        <v>0.7528879237375027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7118141344816014</v>
+        <v>0.7124381757648954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7917420142912549</v>
+        <v>0.78963059290601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -6553,19 +6553,19 @@
         <v>102766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91548</v>
+        <v>91601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114999</v>
+        <v>113747</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.548091447494226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4882651179103</v>
+        <v>0.4885456029951052</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6133373890704713</v>
+        <v>0.6066613663348308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>513</v>
@@ -6574,19 +6574,19 @@
         <v>457836</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>436186</v>
+        <v>435990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478017</v>
+        <v>481210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6946292999534155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6617817989783844</v>
+        <v>0.6614843351174979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7252476629419736</v>
+        <v>0.730091774947546</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>267283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>235910</v>
+        <v>238410</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>295397</v>
+        <v>295891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2361485820760432</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2084295262660571</v>
+        <v>0.2106390613747529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2609878992829386</v>
+        <v>0.2614241429600631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>469</v>
@@ -6699,19 +6699,19 @@
         <v>316060</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>292824</v>
+        <v>291382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>340718</v>
+        <v>341905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3669952648766046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.340013902468683</v>
+        <v>0.3383400963205198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3956271058204134</v>
+        <v>0.3970049889605008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>772</v>
@@ -6720,19 +6720,19 @@
         <v>583344</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>545606</v>
+        <v>545696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>623464</v>
+        <v>627168</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2926882673569263</v>
+        <v>0.2926882673569264</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2737537274283083</v>
+        <v>0.2737991391940751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3128181771990606</v>
+        <v>0.3146766608632954</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>864560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>836446</v>
+        <v>835952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>895933</v>
+        <v>893433</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7638514179239567</v>
+        <v>0.7638514179239566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7390121007170615</v>
+        <v>0.738575857039937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7915704737339433</v>
+        <v>0.7893609386252475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>761</v>
@@ -6770,19 +6770,19 @@
         <v>545151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>520493</v>
+        <v>519306</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>568387</v>
+        <v>569829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6330047351233954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6043728941795865</v>
+        <v>0.602995011039499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6599860975313172</v>
+        <v>0.6616599036794801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1576</v>
@@ -6791,19 +6791,19 @@
         <v>1409710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1369590</v>
+        <v>1365886</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1447448</v>
+        <v>1447358</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7073117326430736</v>
+        <v>0.7073117326430737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6871818228009393</v>
+        <v>0.6853233391367045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7262462725716916</v>
+        <v>0.7262008608059249</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>135801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116735</v>
+        <v>115952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158123</v>
+        <v>156412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2391017132150619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2055325989497688</v>
+        <v>0.2041545319357572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2784029518335561</v>
+        <v>0.2753901479273216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>634</v>
@@ -6916,19 +6916,19 @@
         <v>380670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356195</v>
+        <v>356156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>404374</v>
+        <v>403589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4581695396847331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4287109606824028</v>
+        <v>0.4286648522233379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4866991722694491</v>
+        <v>0.4857538081644784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>784</v>
@@ -6937,19 +6937,19 @@
         <v>516471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>485001</v>
+        <v>487167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>548346</v>
+        <v>554257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3692209129815162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3467230024409508</v>
+        <v>0.348271137532208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3920074572256087</v>
+        <v>0.3962337760430975</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>432163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>409841</v>
+        <v>411552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>451229</v>
+        <v>452012</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7608982867849381</v>
+        <v>0.7608982867849379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7215970481664439</v>
+        <v>0.7246098520726783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7944674010502312</v>
+        <v>0.7958454680642427</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -6987,19 +6987,19 @@
         <v>450180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426476</v>
+        <v>427261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>474655</v>
+        <v>474694</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5418304603152669</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5133008277305506</v>
+        <v>0.5142461918355216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5712890393175971</v>
+        <v>0.5713351477766622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1053</v>
@@ -7008,19 +7008,19 @@
         <v>882343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>850468</v>
+        <v>844557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>913813</v>
+        <v>911647</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6307790870184838</v>
+        <v>0.6307790870184837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6079925427743913</v>
+        <v>0.6037662239569025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6532769975590491</v>
+        <v>0.6517288624677922</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>25693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14559</v>
+        <v>12954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43113</v>
+        <v>42427</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1083068488984554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06137040677550104</v>
+        <v>0.05460743897302381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1817374602140567</v>
+        <v>0.1788438955102366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>471</v>
@@ -7133,19 +7133,19 @@
         <v>304284</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>277980</v>
+        <v>278210</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>331716</v>
+        <v>331728</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3604056139715723</v>
+        <v>0.3604056139715724</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3292501983829542</v>
+        <v>0.329523465505879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3928981960169178</v>
+        <v>0.3929124081222153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>489</v>
@@ -7154,19 +7154,19 @@
         <v>329977</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>300841</v>
+        <v>299397</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>364460</v>
+        <v>367041</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3051080279915457</v>
+        <v>0.3051080279915456</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2781674847871297</v>
+        <v>0.2768328912556563</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.336992182914002</v>
+        <v>0.3393790349294709</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>211535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194115</v>
+        <v>194801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222669</v>
+        <v>224274</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8916931511015447</v>
+        <v>0.8916931511015446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8182625397859439</v>
+        <v>0.8211561044897632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9386295932244992</v>
+        <v>0.9453925610269762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>688</v>
@@ -7204,19 +7204,19 @@
         <v>539997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>512565</v>
+        <v>512553</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>566301</v>
+        <v>566071</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6395943860284276</v>
+        <v>0.6395943860284277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.607101803983082</v>
+        <v>0.6070875918777837</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6707498016170457</v>
+        <v>0.6704765344941206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>782</v>
@@ -7225,19 +7225,19 @@
         <v>751532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>717049</v>
+        <v>714468</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>780668</v>
+        <v>782112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6948919720084544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.663007817085998</v>
+        <v>0.6606209650705285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7218325152128705</v>
+        <v>0.7231671087443435</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>737360</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>689343</v>
+        <v>684963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>788804</v>
+        <v>782354</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2141946440840167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2002463642666339</v>
+        <v>0.1989740325488627</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2291386288554219</v>
+        <v>0.2272650329323671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2158</v>
@@ -7350,19 +7350,19 @@
         <v>1409194</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1353805</v>
+        <v>1361657</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1455599</v>
+        <v>1459760</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.387631913252634</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3723958625228051</v>
+        <v>0.3745555659493512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4003966002280275</v>
+        <v>0.4015411547328972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2973</v>
@@ -7371,19 +7371,19 @@
         <v>2146554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2066532</v>
+        <v>2073020</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2222059</v>
+        <v>2222922</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3032769158538189</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2919709678237609</v>
+        <v>0.2928875219811552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3139446592867584</v>
+        <v>0.3140665197928643</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2705116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2653672</v>
+        <v>2660122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2753133</v>
+        <v>2757513</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7858053559159835</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7708613711445781</v>
+        <v>0.7727349670676329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7997536357333661</v>
+        <v>0.8010259674511369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3086</v>
@@ -7421,19 +7421,19 @@
         <v>2226199</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2179794</v>
+        <v>2175633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2281588</v>
+        <v>2273736</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6123680867473662</v>
+        <v>0.6123680867473661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5996033997719726</v>
+        <v>0.5984588452671028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6276041374771949</v>
+        <v>0.6254444340506488</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5571</v>
@@ -7442,19 +7442,19 @@
         <v>4931315</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4855810</v>
+        <v>4854947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5011337</v>
+        <v>5004849</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.696723084146181</v>
+        <v>0.6967230841461811</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6860553407132418</v>
+        <v>0.6859334802071353</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7080290321762388</v>
+        <v>0.7071124780188447</v>
       </c>
     </row>
     <row r="24">
